--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H2">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I2">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J2">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.399594442798</v>
+        <v>143.0191385</v>
       </c>
       <c r="N2">
-        <v>141.399594442798</v>
+        <v>286.038277</v>
       </c>
       <c r="O2">
-        <v>0.5657928619958436</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P2">
-        <v>0.5657928619958436</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q2">
-        <v>8709.736471661696</v>
+        <v>8815.901211106146</v>
       </c>
       <c r="R2">
-        <v>8709.736471661696</v>
+        <v>35263.60484442458</v>
       </c>
       <c r="S2">
-        <v>0.2485331965262037</v>
+        <v>0.2328931268561401</v>
       </c>
       <c r="T2">
-        <v>0.2485331965262037</v>
+        <v>0.1600322800333966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H3">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I3">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J3">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.11452145892454</v>
+        <v>0.038432</v>
       </c>
       <c r="N3">
-        <v>3.11452145892454</v>
+        <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.01246236961949179</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P3">
-        <v>0.01246236961949179</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q3">
-        <v>191.8439812325057</v>
+        <v>2.369002630688</v>
       </c>
       <c r="R3">
-        <v>191.8439812325057</v>
+        <v>14.214015784128</v>
       </c>
       <c r="S3">
-        <v>0.00547428708608575</v>
+        <v>6.25828734895867E-05</v>
       </c>
       <c r="T3">
-        <v>0.00547428708608575</v>
+        <v>6.450563872866041E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H4">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I4">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J4">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.93606295157313</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N4">
-        <v>4.93606295157313</v>
+        <v>9.501127</v>
       </c>
       <c r="O4">
-        <v>0.01975104097976753</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P4">
-        <v>0.01975104097976753</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q4">
-        <v>304.0447724418796</v>
+        <v>195.2209517893143</v>
       </c>
       <c r="R4">
-        <v>304.0447724418796</v>
+        <v>1171.325710735886</v>
       </c>
       <c r="S4">
-        <v>0.008675947823211894</v>
+        <v>0.005157228603329659</v>
       </c>
       <c r="T4">
-        <v>0.008675947823211894</v>
+        <v>0.005315676743140449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H5">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I5">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J5">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.099109079072</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N5">
-        <v>100.099109079072</v>
+        <v>15.391724</v>
       </c>
       <c r="O5">
-        <v>0.4005341149121445</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P5">
-        <v>0.4005341149121445</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q5">
-        <v>6165.766348640625</v>
+        <v>316.2558514330387</v>
       </c>
       <c r="R5">
-        <v>6165.766348640625</v>
+        <v>1897.535108598232</v>
       </c>
       <c r="S5">
-        <v>0.1759407560317372</v>
+        <v>0.008354655112741426</v>
       </c>
       <c r="T5">
-        <v>0.1759407560317372</v>
+        <v>0.008611339402540002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H6">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I6">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J6">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.364777692300393</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N6">
-        <v>0.364777692300393</v>
+        <v>312.62056</v>
       </c>
       <c r="O6">
-        <v>0.001459612492752738</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P6">
-        <v>0.001459612492752738</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q6">
-        <v>22.46907130955454</v>
+        <v>6423.457266923014</v>
       </c>
       <c r="R6">
-        <v>22.46907130955454</v>
+        <v>38540.74360153808</v>
       </c>
       <c r="S6">
-        <v>0.0006411571846872879</v>
+        <v>0.1696909949757472</v>
       </c>
       <c r="T6">
-        <v>0.0006411571846872879</v>
+        <v>0.1749044971422383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4999368361075</v>
+        <v>61.641409</v>
       </c>
       <c r="H7">
-        <v>11.4999368361075</v>
+        <v>123.282818</v>
       </c>
       <c r="I7">
-        <v>0.08200976083919821</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J7">
-        <v>0.08200976083919821</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.399594442798</v>
+        <v>0.427696</v>
       </c>
       <c r="N7">
-        <v>141.399594442798</v>
+        <v>0.855392</v>
       </c>
       <c r="O7">
-        <v>0.5657928619958436</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P7">
-        <v>0.5657928619958436</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q7">
-        <v>1626.086404743394</v>
+        <v>26.363784063664</v>
       </c>
       <c r="R7">
-        <v>1626.086404743394</v>
+        <v>105.455136254656</v>
       </c>
       <c r="S7">
-        <v>0.04640053729680461</v>
+        <v>0.0006964624443172948</v>
       </c>
       <c r="T7">
-        <v>0.04640053729680461</v>
+        <v>0.00047857347456448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4999368361075</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H8">
-        <v>11.4999368361075</v>
+        <v>37.053596</v>
       </c>
       <c r="I8">
-        <v>0.08200976083919821</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J8">
-        <v>0.08200976083919821</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11452145892454</v>
+        <v>143.0191385</v>
       </c>
       <c r="N8">
-        <v>3.11452145892454</v>
+        <v>286.038277</v>
       </c>
       <c r="O8">
-        <v>0.01246236961949179</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P8">
-        <v>0.01246236961949179</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q8">
-        <v>35.81680005233359</v>
+        <v>1766.457792749015</v>
       </c>
       <c r="R8">
-        <v>35.81680005233359</v>
+        <v>10598.74675649409</v>
       </c>
       <c r="S8">
-        <v>0.001022035951984211</v>
+        <v>0.04666520971156563</v>
       </c>
       <c r="T8">
-        <v>0.001022035951984211</v>
+        <v>0.04809892852478716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4999368361075</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H9">
-        <v>11.4999368361075</v>
+        <v>37.053596</v>
       </c>
       <c r="I9">
-        <v>0.08200976083919821</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J9">
-        <v>0.08200976083919821</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.93606295157313</v>
+        <v>0.038432</v>
       </c>
       <c r="N9">
-        <v>4.93606295157313</v>
+        <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.01975104097976753</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P9">
-        <v>0.01975104097976753</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q9">
-        <v>56.76441216214135</v>
+        <v>0.4746812671573333</v>
       </c>
       <c r="R9">
-        <v>56.76441216214135</v>
+        <v>4.272131404416</v>
       </c>
       <c r="S9">
-        <v>0.001619778147075938</v>
+        <v>1.253984157955818E-05</v>
       </c>
       <c r="T9">
-        <v>0.001619778147075938</v>
+        <v>1.9387664201298E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.4999368361075</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H10">
-        <v>11.4999368361075</v>
+        <v>37.053596</v>
       </c>
       <c r="I10">
-        <v>0.08200976083919821</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J10">
-        <v>0.08200976083919821</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.099109079072</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N10">
-        <v>100.099109079072</v>
+        <v>9.501127</v>
       </c>
       <c r="O10">
-        <v>0.4005341149121445</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P10">
-        <v>0.4005341149121445</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q10">
-        <v>1151.133431759963</v>
+        <v>39.11676904474356</v>
       </c>
       <c r="R10">
-        <v>1151.133431759963</v>
+        <v>352.050921402692</v>
       </c>
       <c r="S10">
-        <v>0.0328477069718849</v>
+        <v>0.001033363060359968</v>
       </c>
       <c r="T10">
-        <v>0.0328477069718849</v>
+        <v>0.001597667393577278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.4999368361075</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H11">
-        <v>11.4999368361075</v>
+        <v>37.053596</v>
       </c>
       <c r="I11">
-        <v>0.08200976083919821</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J11">
-        <v>0.08200976083919821</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.364777692300393</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N11">
-        <v>0.364777692300393</v>
+        <v>15.391724</v>
       </c>
       <c r="O11">
-        <v>0.001459612492752738</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P11">
-        <v>0.001459612492752738</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q11">
-        <v>4.194920420675576</v>
+        <v>63.36874698216712</v>
       </c>
       <c r="R11">
-        <v>4.194920420675576</v>
+        <v>570.3187228395039</v>
       </c>
       <c r="S11">
-        <v>0.000119702471448558</v>
+        <v>0.001674037092321361</v>
       </c>
       <c r="T11">
-        <v>0.000119702471448558</v>
+        <v>0.00258820406944785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.926204333973038</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H12">
-        <v>0.926204333973038</v>
+        <v>37.053596</v>
       </c>
       <c r="I12">
-        <v>0.006605062010329087</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J12">
-        <v>0.006605062010329087</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>141.399594442798</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N12">
-        <v>141.399594442798</v>
+        <v>312.62056</v>
       </c>
       <c r="O12">
-        <v>0.5657928619958436</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P12">
-        <v>0.5657928619958436</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q12">
-        <v>130.9649171949494</v>
+        <v>1287.079547948196</v>
       </c>
       <c r="R12">
-        <v>130.9649171949494</v>
+        <v>11583.71593153376</v>
       </c>
       <c r="S12">
-        <v>0.003737096938484114</v>
+        <v>0.03400128622773352</v>
       </c>
       <c r="T12">
-        <v>0.003737096938484114</v>
+        <v>0.05256888738292511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.926204333973038</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H13">
-        <v>0.926204333973038</v>
+        <v>37.053596</v>
       </c>
       <c r="I13">
-        <v>0.006605062010329087</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J13">
-        <v>0.006605062010329087</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11452145892454</v>
+        <v>0.427696</v>
       </c>
       <c r="N13">
-        <v>3.11452145892454</v>
+        <v>0.855392</v>
       </c>
       <c r="O13">
-        <v>0.01246236961949179</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P13">
-        <v>0.01246236961949179</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q13">
-        <v>2.884683273507938</v>
+        <v>5.282558264938667</v>
       </c>
       <c r="R13">
-        <v>2.884683273507938</v>
+        <v>31.695349589632</v>
       </c>
       <c r="S13">
-        <v>8.231472413238457E-05</v>
+        <v>0.0001395514176782555</v>
       </c>
       <c r="T13">
-        <v>8.231472413238457E-05</v>
+        <v>0.0001438389263849284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.926204333973038</v>
+        <v>0.556859</v>
       </c>
       <c r="H14">
-        <v>0.926204333973038</v>
+        <v>1.670577</v>
       </c>
       <c r="I14">
-        <v>0.006605062010329087</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J14">
-        <v>0.006605062010329087</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.93606295157313</v>
+        <v>143.0191385</v>
       </c>
       <c r="N14">
-        <v>4.93606295157313</v>
+        <v>286.038277</v>
       </c>
       <c r="O14">
-        <v>0.01975104097976753</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P14">
-        <v>0.01975104097976753</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q14">
-        <v>4.571802898510779</v>
+        <v>79.6414944459715</v>
       </c>
       <c r="R14">
-        <v>4.571802898510779</v>
+        <v>477.848966675829</v>
       </c>
       <c r="S14">
-        <v>0.0001304568504399155</v>
+        <v>0.002103920657102166</v>
       </c>
       <c r="T14">
-        <v>0.0001304568504399155</v>
+        <v>0.002168560474350542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.926204333973038</v>
+        <v>0.556859</v>
       </c>
       <c r="H15">
-        <v>0.926204333973038</v>
+        <v>1.670577</v>
       </c>
       <c r="I15">
-        <v>0.006605062010329087</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J15">
-        <v>0.006605062010329087</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>100.099109079072</v>
+        <v>0.038432</v>
       </c>
       <c r="N15">
-        <v>100.099109079072</v>
+        <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.4005341149121445</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P15">
-        <v>0.4005341149121445</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q15">
-        <v>92.71222865587636</v>
+        <v>0.021401205088</v>
       </c>
       <c r="R15">
-        <v>92.71222865587636</v>
+        <v>0.192610845792</v>
       </c>
       <c r="S15">
-        <v>0.002645552666246991</v>
+        <v>5.653640452725174E-07</v>
       </c>
       <c r="T15">
-        <v>0.002645552666246991</v>
+        <v>8.741010156858138E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.926204333973038</v>
+        <v>0.556859</v>
       </c>
       <c r="H16">
-        <v>0.926204333973038</v>
+        <v>1.670577</v>
       </c>
       <c r="I16">
-        <v>0.006605062010329087</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J16">
-        <v>0.006605062010329087</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.364777692300393</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N16">
-        <v>0.364777692300393</v>
+        <v>9.501127</v>
       </c>
       <c r="O16">
-        <v>0.001459612492752738</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P16">
-        <v>0.001459612492752738</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q16">
-        <v>0.3378586795453073</v>
+        <v>1.763596026697667</v>
       </c>
       <c r="R16">
-        <v>0.3378586795453073</v>
+        <v>15.872364240279</v>
       </c>
       <c r="S16">
-        <v>9.640831025682848E-06</v>
+        <v>4.658960931314128E-05</v>
       </c>
       <c r="T16">
-        <v>9.640831025682848E-06</v>
+        <v>7.203150812569308E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>40.8995717163733</v>
+        <v>0.556859</v>
       </c>
       <c r="H17">
-        <v>40.8995717163733</v>
+        <v>1.670577</v>
       </c>
       <c r="I17">
-        <v>0.2916680450238654</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J17">
-        <v>0.2916680450238654</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>141.399594442798</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N17">
-        <v>141.399594442798</v>
+        <v>15.391724</v>
       </c>
       <c r="O17">
-        <v>0.5657928619958436</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P17">
-        <v>0.5657928619958436</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q17">
-        <v>5783.182853579317</v>
+        <v>2.857006678305333</v>
       </c>
       <c r="R17">
-        <v>5783.182853579317</v>
+        <v>25.713060104748</v>
       </c>
       <c r="S17">
-        <v>0.1650236979467854</v>
+        <v>7.547466819627822E-05</v>
       </c>
       <c r="T17">
-        <v>0.1650236979467854</v>
+        <v>0.0001166902718355859</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>40.8995717163733</v>
+        <v>0.556859</v>
       </c>
       <c r="H18">
-        <v>40.8995717163733</v>
+        <v>1.670577</v>
       </c>
       <c r="I18">
-        <v>0.2916680450238654</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J18">
-        <v>0.2916680450238654</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11452145892454</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N18">
-        <v>3.11452145892454</v>
+        <v>312.62056</v>
       </c>
       <c r="O18">
-        <v>0.01246236961949179</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P18">
-        <v>0.01246236961949179</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q18">
-        <v>127.3825937714678</v>
+        <v>58.02852414034667</v>
       </c>
       <c r="R18">
-        <v>127.3825937714678</v>
+        <v>522.25671726312</v>
       </c>
       <c r="S18">
-        <v>0.003634874983281984</v>
+        <v>0.001532962326854009</v>
       </c>
       <c r="T18">
-        <v>0.003634874983281984</v>
+        <v>0.002370090454311233</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>40.8995717163733</v>
+        <v>0.556859</v>
       </c>
       <c r="H19">
-        <v>40.8995717163733</v>
+        <v>1.670577</v>
       </c>
       <c r="I19">
-        <v>0.2916680450238654</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J19">
-        <v>0.2916680450238654</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.93606295157313</v>
+        <v>0.427696</v>
       </c>
       <c r="N19">
-        <v>4.93606295157313</v>
+        <v>0.855392</v>
       </c>
       <c r="O19">
-        <v>0.01975104097976753</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P19">
-        <v>0.01975104097976753</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q19">
-        <v>201.8828606843985</v>
+        <v>0.238166366864</v>
       </c>
       <c r="R19">
-        <v>201.8828606843985</v>
+        <v>1.428998201184</v>
       </c>
       <c r="S19">
-        <v>0.005760747509755047</v>
+        <v>6.29173451048279E-06</v>
       </c>
       <c r="T19">
-        <v>0.005760747509755047</v>
+        <v>6.485038648431165E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.8995717163733</v>
+        <v>0.9433796666666666</v>
       </c>
       <c r="H20">
-        <v>40.8995717163733</v>
+        <v>2.830139</v>
       </c>
       <c r="I20">
-        <v>0.2916680450238654</v>
+        <v>0.006379681861815685</v>
       </c>
       <c r="J20">
-        <v>0.2916680450238654</v>
+        <v>0.008021150332118547</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.099109079072</v>
+        <v>143.0191385</v>
       </c>
       <c r="N20">
-        <v>100.099109079072</v>
+        <v>286.038277</v>
       </c>
       <c r="O20">
-        <v>0.4005341149121445</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P20">
-        <v>0.4005341149121445</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q20">
-        <v>4094.010690524579</v>
+        <v>134.9213472050838</v>
       </c>
       <c r="R20">
-        <v>4094.010690524579</v>
+        <v>809.5280832305029</v>
       </c>
       <c r="S20">
-        <v>0.1168230022617894</v>
+        <v>0.003564270251877325</v>
       </c>
       <c r="T20">
-        <v>0.1168230022617894</v>
+        <v>0.003673777127494255</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.8995717163733</v>
+        <v>0.9433796666666666</v>
       </c>
       <c r="H21">
-        <v>40.8995717163733</v>
+        <v>2.830139</v>
       </c>
       <c r="I21">
-        <v>0.2916680450238654</v>
+        <v>0.006379681861815685</v>
       </c>
       <c r="J21">
-        <v>0.2916680450238654</v>
+        <v>0.008021150332118547</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.364777692300393</v>
+        <v>0.038432</v>
       </c>
       <c r="N21">
-        <v>0.364777692300393</v>
+        <v>0.115296</v>
       </c>
       <c r="O21">
-        <v>0.001459612492752738</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P21">
-        <v>0.001459612492752738</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q21">
-        <v>14.91925138677307</v>
+        <v>0.03625596734933333</v>
       </c>
       <c r="R21">
-        <v>14.91925138677307</v>
+        <v>0.326303706144</v>
       </c>
       <c r="S21">
-        <v>0.0004257223222536019</v>
+        <v>9.577881377054258E-07</v>
       </c>
       <c r="T21">
-        <v>0.0004257223222536019</v>
+        <v>1.480822119801741E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.3041118116474</v>
+        <v>0.9433796666666666</v>
       </c>
       <c r="H22">
-        <v>25.3041118116474</v>
+        <v>2.830139</v>
       </c>
       <c r="I22">
-        <v>0.1804517874746817</v>
+        <v>0.006379681861815685</v>
       </c>
       <c r="J22">
-        <v>0.1804517874746817</v>
+        <v>0.008021150332118547</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>141.399594442798</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N22">
-        <v>141.399594442798</v>
+        <v>9.501127</v>
       </c>
       <c r="O22">
-        <v>0.5657928619958436</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P22">
-        <v>0.5657928619958436</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q22">
-        <v>3577.991147902157</v>
+        <v>2.987723340739222</v>
       </c>
       <c r="R22">
-        <v>3577.991147902157</v>
+        <v>26.889510066653</v>
       </c>
       <c r="S22">
-        <v>0.1020983332875659</v>
+        <v>7.892786163815518E-05</v>
       </c>
       <c r="T22">
-        <v>0.1020983332875659</v>
+        <v>0.0001220292033084023</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.3041118116474</v>
+        <v>0.9433796666666666</v>
       </c>
       <c r="H23">
-        <v>25.3041118116474</v>
+        <v>2.830139</v>
       </c>
       <c r="I23">
-        <v>0.1804517874746817</v>
+        <v>0.006379681861815685</v>
       </c>
       <c r="J23">
-        <v>0.1804517874746817</v>
+        <v>0.008021150332118547</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.11452145892454</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N23">
-        <v>3.11452145892454</v>
+        <v>15.391724</v>
       </c>
       <c r="O23">
-        <v>0.01246236961949179</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P23">
-        <v>0.01246236961949179</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q23">
-        <v>78.81019923640174</v>
+        <v>4.840079818848444</v>
       </c>
       <c r="R23">
-        <v>78.81019923640174</v>
+        <v>43.560718369636</v>
       </c>
       <c r="S23">
-        <v>0.002248856874007462</v>
+        <v>0.0001278622906782188</v>
       </c>
       <c r="T23">
-        <v>0.002248856874007462</v>
+        <v>0.0001976860026460878</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.3041118116474</v>
+        <v>0.9433796666666666</v>
       </c>
       <c r="H24">
-        <v>25.3041118116474</v>
+        <v>2.830139</v>
       </c>
       <c r="I24">
-        <v>0.1804517874746817</v>
+        <v>0.006379681861815685</v>
       </c>
       <c r="J24">
-        <v>0.1804517874746817</v>
+        <v>0.008021150332118547</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.93606295157313</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N24">
-        <v>4.93606295157313</v>
+        <v>312.62056</v>
       </c>
       <c r="O24">
-        <v>0.01975104097976753</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P24">
-        <v>0.01975104097976753</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q24">
-        <v>124.9026888359368</v>
+        <v>98.30662656198223</v>
       </c>
       <c r="R24">
-        <v>124.9026888359368</v>
+        <v>884.75963905784</v>
       </c>
       <c r="S24">
-        <v>0.003564110649284739</v>
+        <v>0.002597004787423912</v>
       </c>
       <c r="T24">
-        <v>0.003564110649284739</v>
+        <v>0.004015190816271227</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.3041118116474</v>
+        <v>0.9433796666666666</v>
       </c>
       <c r="H25">
-        <v>25.3041118116474</v>
+        <v>2.830139</v>
       </c>
       <c r="I25">
-        <v>0.1804517874746817</v>
+        <v>0.006379681861815685</v>
       </c>
       <c r="J25">
-        <v>0.1804517874746817</v>
+        <v>0.008021150332118547</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>100.099109079072</v>
+        <v>0.427696</v>
       </c>
       <c r="N25">
-        <v>100.099109079072</v>
+        <v>0.855392</v>
       </c>
       <c r="O25">
-        <v>0.4005341149121445</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P25">
-        <v>0.4005341149121445</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q25">
-        <v>2532.919048383127</v>
+        <v>0.4034797099146666</v>
       </c>
       <c r="R25">
-        <v>2532.919048383127</v>
+        <v>2.420878259488</v>
       </c>
       <c r="S25">
-        <v>0.07227709698048602</v>
+        <v>1.065888206036792E-05</v>
       </c>
       <c r="T25">
-        <v>0.07227709698048602</v>
+        <v>1.098636027877334E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H26">
+        <v>129.714199</v>
+      </c>
+      <c r="I26">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J26">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>143.0191385</v>
+      </c>
+      <c r="N26">
+        <v>286.038277</v>
+      </c>
+      <c r="O26">
+        <v>0.5586909079605606</v>
+      </c>
+      <c r="P26">
+        <v>0.4580112546679992</v>
+      </c>
+      <c r="Q26">
+        <v>6183.870997399187</v>
+      </c>
+      <c r="R26">
+        <v>37103.22598439513</v>
+      </c>
+      <c r="S26">
+        <v>0.163361750338692</v>
+      </c>
+      <c r="T26">
+        <v>0.168380795924666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H27">
+        <v>129.714199</v>
+      </c>
+      <c r="I27">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J27">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.038432</v>
+      </c>
+      <c r="N27">
+        <v>0.115296</v>
+      </c>
+      <c r="O27">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P27">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q27">
+        <v>1.661725365322667</v>
+      </c>
+      <c r="R27">
+        <v>14.955528287904</v>
+      </c>
+      <c r="S27">
+        <v>4.38984520174313E-05</v>
+      </c>
+      <c r="T27">
+        <v>6.787074950437591E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H28">
+        <v>129.714199</v>
+      </c>
+      <c r="I28">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J28">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N28">
+        <v>9.501127</v>
+      </c>
+      <c r="O28">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P28">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q28">
+        <v>136.9367864891414</v>
+      </c>
+      <c r="R28">
+        <v>1232.431078402273</v>
+      </c>
+      <c r="S28">
+        <v>0.003617512903492064</v>
+      </c>
+      <c r="T28">
+        <v>0.005592983369989093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H29">
+        <v>129.714199</v>
+      </c>
+      <c r="I29">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J29">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N29">
+        <v>15.391724</v>
+      </c>
+      <c r="O29">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P29">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q29">
+        <v>221.8361277654529</v>
+      </c>
+      <c r="R29">
+        <v>1996.525149889076</v>
+      </c>
+      <c r="S29">
+        <v>0.005860332166593341</v>
+      </c>
+      <c r="T29">
+        <v>0.009060573168579054</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H30">
+        <v>129.714199</v>
+      </c>
+      <c r="I30">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J30">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N30">
+        <v>312.62056</v>
+      </c>
+      <c r="O30">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P30">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q30">
+        <v>4505.702836814605</v>
+      </c>
+      <c r="R30">
+        <v>40551.32553133144</v>
+      </c>
+      <c r="S30">
+        <v>0.1190289225369701</v>
+      </c>
+      <c r="T30">
+        <v>0.1840288623861861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H31">
+        <v>129.714199</v>
+      </c>
+      <c r="I31">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J31">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.427696</v>
+      </c>
+      <c r="N31">
+        <v>0.855392</v>
+      </c>
+      <c r="O31">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P31">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q31">
+        <v>18.49274801850133</v>
+      </c>
+      <c r="R31">
+        <v>110.956488111008</v>
+      </c>
+      <c r="S31">
+        <v>0.000488530191872588</v>
+      </c>
+      <c r="T31">
+        <v>0.0005035395517628288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>29.1416125</v>
+      </c>
+      <c r="H32">
+        <v>58.283225</v>
+      </c>
+      <c r="I32">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J32">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>143.0191385</v>
+      </c>
+      <c r="N32">
+        <v>286.038277</v>
+      </c>
+      <c r="O32">
+        <v>0.5586909079605606</v>
+      </c>
+      <c r="P32">
+        <v>0.4580112546679992</v>
+      </c>
+      <c r="Q32">
+        <v>4167.808314250831</v>
+      </c>
+      <c r="R32">
+        <v>16671.23325700332</v>
+      </c>
+      <c r="S32">
+        <v>0.1101026301451834</v>
+      </c>
+      <c r="T32">
+        <v>0.07565691258330469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>29.1416125</v>
+      </c>
+      <c r="H33">
+        <v>58.283225</v>
+      </c>
+      <c r="I33">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J33">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.038432</v>
+      </c>
+      <c r="N33">
+        <v>0.115296</v>
+      </c>
+      <c r="O33">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P33">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q33">
+        <v>1.1199704516</v>
+      </c>
+      <c r="R33">
+        <v>6.7198227096</v>
+      </c>
+      <c r="S33">
+        <v>2.958669955727421E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.049570667496608E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>29.1416125</v>
+      </c>
+      <c r="H34">
+        <v>58.283225</v>
+      </c>
+      <c r="I34">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J34">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N34">
+        <v>9.501127</v>
+      </c>
+      <c r="O34">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P34">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q34">
+        <v>92.29272044909584</v>
+      </c>
+      <c r="R34">
+        <v>553.756322694575</v>
+      </c>
+      <c r="S34">
+        <v>0.00243813306623392</v>
+      </c>
+      <c r="T34">
+        <v>0.002513041060172083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>29.1416125</v>
+      </c>
+      <c r="H35">
+        <v>58.283225</v>
+      </c>
+      <c r="I35">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J35">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N35">
+        <v>15.391724</v>
+      </c>
+      <c r="O35">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P35">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q35">
+        <v>149.5132188383167</v>
+      </c>
+      <c r="R35">
+        <v>897.0793130299</v>
+      </c>
+      <c r="S35">
+        <v>0.003949749459274276</v>
+      </c>
+      <c r="T35">
+        <v>0.004071099607324068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>25.3041118116474</v>
-      </c>
-      <c r="H26">
-        <v>25.3041118116474</v>
-      </c>
-      <c r="I26">
-        <v>0.1804517874746817</v>
-      </c>
-      <c r="J26">
-        <v>0.1804517874746817</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="N26">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="O26">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="P26">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="Q26">
-        <v>9.230375512363855</v>
-      </c>
-      <c r="R26">
-        <v>9.230375512363855</v>
-      </c>
-      <c r="S26">
-        <v>0.0002633896833376074</v>
-      </c>
-      <c r="T26">
-        <v>0.0002633896833376074</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>29.1416125</v>
+      </c>
+      <c r="H36">
+        <v>58.283225</v>
+      </c>
+      <c r="I36">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J36">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N36">
+        <v>312.62056</v>
+      </c>
+      <c r="O36">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P36">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q36">
+        <v>3036.755739684334</v>
+      </c>
+      <c r="R36">
+        <v>18220.534438106</v>
+      </c>
+      <c r="S36">
+        <v>0.08022316979033806</v>
+      </c>
+      <c r="T36">
+        <v>0.08268790676453334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>29.1416125</v>
+      </c>
+      <c r="H37">
+        <v>58.283225</v>
+      </c>
+      <c r="I37">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J37">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.427696</v>
+      </c>
+      <c r="N37">
+        <v>0.855392</v>
+      </c>
+      <c r="O37">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P37">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q37">
+        <v>12.4637510998</v>
+      </c>
+      <c r="R37">
+        <v>49.85500439920001</v>
+      </c>
+      <c r="S37">
+        <v>0.0003292598109348447</v>
+      </c>
+      <c r="T37">
+        <v>0.0002262505509654506</v>
       </c>
     </row>
   </sheetData>
